--- a/component/Tuning Exp/Left & Right IR.xlsx
+++ b/component/Tuning Exp/Left & Right IR.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MA4012\Rollin-with-a-G\component\Tuning Exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF8CABD-6311-4222-9780-369DE75C212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E7076D-469D-4A12-A13F-27BDF71BD1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{049277DA-518B-45DF-9E5B-5FB9B4ACFEF8}"/>
   </bookViews>
   <sheets>
-    <sheet name="31-Mar" sheetId="1" r:id="rId1"/>
+    <sheet name="3-Apr" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="31-Mar" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t xml:space="preserve">left sensor </t>
   </si>
@@ -68,6 +70,48 @@
   </si>
   <si>
     <t>reading (with new value: 47.193, -0.699)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factor </t>
+  </si>
+  <si>
+    <t>reading (with new value: 64.479, -0.991)</t>
+  </si>
+  <si>
+    <t>distance/factor</t>
+  </si>
+  <si>
+    <t>reading (with new value: 54.372, -0.853)</t>
+  </si>
+  <si>
+    <t>reading (with new value: 47.789, -0.712)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reading (with current tune: 25.1, -0.904) </t>
+  </si>
+  <si>
+    <t>expo</t>
+  </si>
+  <si>
+    <t>dist/fact</t>
+  </si>
+  <si>
+    <t>log v</t>
+  </si>
+  <si>
+    <t>log d</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>analog value</t>
+  </si>
+  <si>
+    <t>actual distance</t>
   </si>
 </sst>
 </file>
@@ -175,6 +219,2369 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.7412073490813647E-2"/>
+                  <c:y val="6.5931393992417611E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'3-Apr'!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9379999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'3-Apr'!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2F3-4CCB-84B8-EC8E25DE5154}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="644647504"/>
+        <c:axId val="644645584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="644647504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644645584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="644645584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644647504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16863276465441815"/>
+                  <c:y val="4.6747594050743656E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 54.372e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>-0.853x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.0278302600989146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4705265594199033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0937461329505709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89464482236005782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78947197000139679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F43D-4EB6-AFBF-8A832794386E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="543868528"/>
+        <c:axId val="543869488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="543868528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543869488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="543869488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543868528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.39692475940507438"/>
+                  <c:y val="5.7153689122192972E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$18:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2719708137399302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5219671862562807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1032632121056976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93652863172860756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7760408214483403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$18:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A90D-43FF-848E-F3DCDDE6DDD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="635100984"/>
+        <c:axId val="635099704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="635100984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635099704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="635099704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="635100984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.46529221347331584"/>
+                  <c:y val="4.1930227471566058E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 49.296e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+                      <a:t>-0.732x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$34:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2297917071542708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5487159374056136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1988425598531525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93845366561629895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7264458043065658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$34:$I$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C88B-4EBD-BEAD-3DBB21B34DC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="589090872"/>
+        <c:axId val="589091192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="589090872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589091192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="589091192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589090872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.38193678915135609"/>
+                  <c:y val="0.2123436132983377"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>y = -1.3455x + 1.4876</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$56:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.37497331983122395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21632050754990417</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12128220145853993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2534517001853548E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1975537017085472E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$56:$J$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3979400086720377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4771212547196624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AD0-4153-9503-5EFB31373609}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="596651280"/>
+        <c:axId val="596652240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="596651280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596652240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="596652240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="596651280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.40687007874015746"/>
+                  <c:y val="-4.8283027121609798E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                      <a:t>y = 86.761e</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1800" baseline="30000"/>
+                      <a:t>-0.971x</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1800"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$68:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$68:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F6B-4613-83DE-52A767086AB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="568041656"/>
+        <c:axId val="568040696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="568041656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568040696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="568040696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568041656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>Distance vs Volt</c:v>
           </c:tx>
@@ -216,8 +2623,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-4.2522528433945758E-2"/>
-                  <c:y val="3.535360163312911E-2"/>
+                  <c:x val="-0.45363363954505687"/>
+                  <c:y val="-6.186862058909303E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -498,7 +2905,668 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.1414698162729666E-2"/>
+                  <c:y val="8.4995625546806647E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'31-Mar'!$L$29:$L$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9119766798160431</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4163855593317094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1814887947196031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96167198167401913</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79298078653688664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'31-Mar'!$M$29:$M$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0AE7-493C-ADAC-9C89EF9A67C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="580474488"/>
+        <c:axId val="580475768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="580474488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580475768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="580475768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580474488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1054,7 +4122,3847 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1342106-17C8-4B7D-85A3-1768B89692E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C3FDC2-2F82-4834-B0FF-B422803038AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E05EF6-24AE-44A5-B926-1A04791279F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFC0365C-148F-436C-9F0E-C28606FC5F4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B802D479-B1A4-4827-ADA2-EF4D3E4D82FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1843451E-98FC-4F43-B486-F9446DD800BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1087,6 +7995,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BC1A9F-CE2E-4DFD-8244-B692B4CD7CC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1391,11 +8335,1121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D0B7FE-8DEF-4A19-BC9A-3A015505E3BF}">
+  <dimension ref="A2:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>0.86</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>0.88</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>0.92</v>
+      </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.36</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1.6</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2092EC6C-0F52-47DB-B5AC-44D8CB2DB7AE}">
+  <dimension ref="A1:J72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+      <c r="D2">
+        <v>64.478999999999999</v>
+      </c>
+      <c r="E2">
+        <v>-0.99099999999999999</v>
+      </c>
+      <c r="F2">
+        <f>1/E2</f>
+        <v>-1.0090817356205852</v>
+      </c>
+      <c r="G2">
+        <f>B2/D2</f>
+        <v>0.49628561236991892</v>
+      </c>
+      <c r="H2">
+        <f>POWER(G2,F2)</f>
+        <v>2.0278302600989146</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>64.478999999999999</v>
+      </c>
+      <c r="E3">
+        <v>-0.99099999999999999</v>
+      </c>
+      <c r="F3">
+        <f>1/E3</f>
+        <v>-1.0090817356205852</v>
+      </c>
+      <c r="G3">
+        <f>B3/D3</f>
+        <v>0.68239271700863846</v>
+      </c>
+      <c r="H3">
+        <f>POWER(G3,F3)</f>
+        <v>1.4705265594199033</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>59</v>
+      </c>
+      <c r="D4">
+        <v>64.478999999999999</v>
+      </c>
+      <c r="E4">
+        <v>-0.99099999999999999</v>
+      </c>
+      <c r="F4">
+        <f>1/E4</f>
+        <v>-1.0090817356205852</v>
+      </c>
+      <c r="G4">
+        <f>B4/D4</f>
+        <v>0.91502659780703799</v>
+      </c>
+      <c r="H4">
+        <f>POWER(G4,F4)</f>
+        <v>1.0937461329505709</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>72</v>
+      </c>
+      <c r="D5">
+        <v>64.478999999999999</v>
+      </c>
+      <c r="E5">
+        <v>-0.99099999999999999</v>
+      </c>
+      <c r="F5">
+        <f>1/E5</f>
+        <v>-1.0090817356205852</v>
+      </c>
+      <c r="G5">
+        <f>B5/D5</f>
+        <v>1.1166426278323176</v>
+      </c>
+      <c r="H5">
+        <f>POWER(G5,F5)</f>
+        <v>0.89464482236005782</v>
+      </c>
+      <c r="I5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>81.5</v>
+      </c>
+      <c r="D6">
+        <v>64.478999999999999</v>
+      </c>
+      <c r="E6">
+        <v>-0.99099999999999999</v>
+      </c>
+      <c r="F6">
+        <f>1/E6</f>
+        <v>-1.0090817356205852</v>
+      </c>
+      <c r="G6">
+        <f>B6/D6</f>
+        <v>1.2639774190046371</v>
+      </c>
+      <c r="H6">
+        <f>POWER(G6,F6)</f>
+        <v>0.78947197000139679</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>54.372</v>
+      </c>
+      <c r="E18">
+        <v>-0.85299999999999998</v>
+      </c>
+      <c r="F18">
+        <f>1/E18</f>
+        <v>-1.1723329425556859</v>
+      </c>
+      <c r="G18">
+        <f>B18/D18</f>
+        <v>0.49657912160670936</v>
+      </c>
+      <c r="H18">
+        <f>POWER(G18,F18)</f>
+        <v>2.2719708137399302</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>54.372</v>
+      </c>
+      <c r="E19">
+        <v>-0.85299999999999998</v>
+      </c>
+      <c r="F19">
+        <f>1/E19</f>
+        <v>-1.1723329425556859</v>
+      </c>
+      <c r="G19">
+        <f>B19/D19</f>
+        <v>0.69888913411314646</v>
+      </c>
+      <c r="H19">
+        <f>POWER(G19,F19)</f>
+        <v>1.5219671862562807</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>54.372</v>
+      </c>
+      <c r="E20">
+        <v>-0.85299999999999998</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:F22" si="0">1/E20</f>
+        <v>-1.1723329425556859</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20:G22" si="1">B20/D20</f>
+        <v>0.91959096593835066</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20:H22" si="2">POWER(G20,F20)</f>
+        <v>1.1032632121056976</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>57.5</v>
+      </c>
+      <c r="D21">
+        <v>54.372</v>
+      </c>
+      <c r="E21">
+        <v>-0.85299999999999998</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>-1.1723329425556859</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1.0575296108291032</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0.93652863172860756</v>
+      </c>
+      <c r="I21">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>67.5</v>
+      </c>
+      <c r="D22">
+        <v>54.372</v>
+      </c>
+      <c r="E22">
+        <v>-0.85299999999999998</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-1.1723329425556859</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1.2414478040167733</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0.7760408214483403</v>
+      </c>
+      <c r="I22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>47.789000000000001</v>
+      </c>
+      <c r="E34">
+        <v>-0.71199999999999997</v>
+      </c>
+      <c r="F34">
+        <f>1/E34</f>
+        <v>-1.404494382022472</v>
+      </c>
+      <c r="G34">
+        <f>B34/D34</f>
+        <v>0.56498357362572971</v>
+      </c>
+      <c r="H34">
+        <f>POWER(G34,F34)</f>
+        <v>2.2297917071542708</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>47.789000000000001</v>
+      </c>
+      <c r="E35">
+        <v>-0.71199999999999997</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:F38" si="3">1/E35</f>
+        <v>-1.404494382022472</v>
+      </c>
+      <c r="G35">
+        <f>B35/D35</f>
+        <v>0.73238611395927933</v>
+      </c>
+      <c r="H35">
+        <f>POWER(G35,F35)</f>
+        <v>1.5487159374056136</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>47.789000000000001</v>
+      </c>
+      <c r="E36">
+        <v>-0.71199999999999997</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="3"/>
+        <v>-1.404494382022472</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36:G38" si="4">B36/D36</f>
+        <v>0.87886333675113515</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36:H38" si="5">POWER(G36,F36)</f>
+        <v>1.1988425598531525</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>47.789000000000001</v>
+      </c>
+      <c r="E37">
+        <v>-0.71199999999999997</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="3"/>
+        <v>-1.404494382022472</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>1.0462658770846847</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>0.93845366561629895</v>
+      </c>
+      <c r="I37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>47.789000000000001</v>
+      </c>
+      <c r="E38">
+        <v>-0.71199999999999997</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="3"/>
+        <v>-1.404494382022472</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>1.2555190525016218</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>0.7264458043065658</v>
+      </c>
+      <c r="I38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>27.533999999999999</v>
+      </c>
+      <c r="E44">
+        <v>-1.2070000000000001</v>
+      </c>
+      <c r="F44">
+        <f>1/E44</f>
+        <v>-0.82850041425020704</v>
+      </c>
+      <c r="G44">
+        <f>B44/D44</f>
+        <v>0.36318733202585896</v>
+      </c>
+      <c r="H44">
+        <f>POWER(G44,F44)</f>
+        <v>2.3143652721961425</v>
+      </c>
+      <c r="I44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>16.5</v>
+      </c>
+      <c r="D45">
+        <v>27.533999999999999</v>
+      </c>
+      <c r="E45">
+        <v>-1.2070000000000001</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:F48" si="6">1/E45</f>
+        <v>-0.82850041425020704</v>
+      </c>
+      <c r="G45">
+        <f>B45/D45</f>
+        <v>0.59925909784266729</v>
+      </c>
+      <c r="H45">
+        <f>POWER(G45,F45)</f>
+        <v>1.5284328600280301</v>
+      </c>
+      <c r="I45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>27.533999999999999</v>
+      </c>
+      <c r="E46">
+        <v>-1.2070000000000001</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="6"/>
+        <v>-0.82850041425020704</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G48" si="7">B46/D46</f>
+        <v>0.90796833006464739</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ref="H46:H48" si="8">POWER(G46,F46)</f>
+        <v>1.0832743050421902</v>
+      </c>
+      <c r="I46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>34</v>
+      </c>
+      <c r="D47">
+        <v>27.533999999999999</v>
+      </c>
+      <c r="E47">
+        <v>-1.2070000000000001</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
+        <v>-0.82850041425020704</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="7"/>
+        <v>1.2348369288879204</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="8"/>
+        <v>0.83965601028659154</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48">
+        <v>38.5</v>
+      </c>
+      <c r="D48">
+        <v>27.533999999999999</v>
+      </c>
+      <c r="E48">
+        <v>-1.2070000000000001</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="6"/>
+        <v>-0.82850041425020704</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="7"/>
+        <v>1.3982712282995569</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="8"/>
+        <v>0.75749094736836642</v>
+      </c>
+      <c r="I48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>11.5</v>
+      </c>
+      <c r="D56">
+        <v>25.1</v>
+      </c>
+      <c r="E56">
+        <v>-0.90400000000000003</v>
+      </c>
+      <c r="F56">
+        <f>1/-0.904</f>
+        <v>-1.1061946902654867</v>
+      </c>
+      <c r="G56">
+        <f>B56/D56</f>
+        <v>0.45816733067729082</v>
+      </c>
+      <c r="H56">
+        <f>POWER(G56,F56)</f>
+        <v>2.3712280286844627</v>
+      </c>
+      <c r="I56">
+        <f>LOG10(H56)</f>
+        <v>0.37497331983122395</v>
+      </c>
+      <c r="J56">
+        <f>LOG10(A56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>25.1</v>
+      </c>
+      <c r="E57">
+        <v>-0.90400000000000003</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57:F60" si="9">1/-0.904</f>
+        <v>-1.1061946902654867</v>
+      </c>
+      <c r="G57">
+        <f>B57/D57</f>
+        <v>0.63745019920318724</v>
+      </c>
+      <c r="H57">
+        <f>POWER(G57,F57)</f>
+        <v>1.6455857107194012</v>
+      </c>
+      <c r="I57">
+        <f>LOG10(H57)</f>
+        <v>0.21632050754990417</v>
+      </c>
+      <c r="J57">
+        <f>LOG10(A57)</f>
+        <v>1.1760912590556813</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>20</v>
+      </c>
+      <c r="B58">
+        <v>19.5</v>
+      </c>
+      <c r="D58">
+        <v>25.1</v>
+      </c>
+      <c r="E58">
+        <v>-0.90400000000000003</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="9"/>
+        <v>-1.1061946902654867</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ref="G58:G60" si="10">B58/D58</f>
+        <v>0.77689243027888444</v>
+      </c>
+      <c r="H58">
+        <f t="shared" ref="H58:H60" si="11">POWER(G58,F58)</f>
+        <v>1.3221544816772881</v>
+      </c>
+      <c r="I58">
+        <f t="shared" ref="I58:I60" si="12">LOG10(H58)</f>
+        <v>0.12128220145853993</v>
+      </c>
+      <c r="J58">
+        <f>LOG10(A58)</f>
+        <v>1.3010299956639813</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>22.5</v>
+      </c>
+      <c r="D59">
+        <v>25.1</v>
+      </c>
+      <c r="E59">
+        <v>-0.90400000000000003</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="9"/>
+        <v>-1.1061946902654867</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="10"/>
+        <v>0.89641434262948205</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="11"/>
+        <v>1.1285856320690542</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="12"/>
+        <v>5.2534517001853548E-2</v>
+      </c>
+      <c r="J59">
+        <f>LOG10(A59)</f>
+        <v>1.3979400086720377</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>25.1</v>
+      </c>
+      <c r="E60">
+        <v>-0.90400000000000003</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="9"/>
+        <v>-1.1061946902654867</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="10"/>
+        <v>0.91633466135458164</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="11"/>
+        <v>1.1014772636727448</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="12"/>
+        <v>4.1975537017085472E-2</v>
+      </c>
+      <c r="J60">
+        <f>LOG10(A60)</f>
+        <v>1.4771212547196624</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <f>1/-1.3455</f>
+        <v>-0.74321813452248242</v>
+      </c>
+      <c r="J63">
+        <f>POWER(10,-1.4876*I63)</f>
+        <v>12.752968791904266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1.64</v>
+      </c>
+      <c r="B69">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1.4</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1.34</v>
+      </c>
+      <c r="B71">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1.24</v>
+      </c>
+      <c r="B72">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E67BAA-628E-440E-B5DD-0F77F8861BC3}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1566,15 +9620,15 @@
         <v>-1.2070000000000001</v>
       </c>
       <c r="J17">
-        <f>1/I17</f>
+        <f t="shared" ref="J17:J22" si="0">1/I17</f>
         <v>-0.82850041425020704</v>
       </c>
       <c r="K17">
-        <f>C17/H17</f>
+        <f t="shared" ref="K17:K22" si="1">C17/H17</f>
         <v>0.36318733202585896</v>
       </c>
       <c r="L17">
-        <f>K17^J17</f>
+        <f t="shared" ref="L17:L22" si="2">K17^J17</f>
         <v>2.3143652721961425</v>
       </c>
       <c r="M17">
@@ -1595,15 +9649,15 @@
         <v>-1.2070000000000001</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J22" si="0">1/I18</f>
+        <f t="shared" si="0"/>
         <v>-0.82850041425020704</v>
       </c>
       <c r="K18">
-        <f>C18/H18</f>
+        <f t="shared" si="1"/>
         <v>0.69005593084913197</v>
       </c>
       <c r="L18">
-        <f>K18^J18</f>
+        <f t="shared" si="2"/>
         <v>1.3598294111261355</v>
       </c>
       <c r="M18">
@@ -1631,11 +9685,11 @@
         <v>-0.82850041425020704</v>
       </c>
       <c r="K19">
-        <f t="shared" ref="K19:K22" si="1">C19/H19</f>
+        <f t="shared" si="1"/>
         <v>0.72637466405171791</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L22" si="2">K19^J19</f>
+        <f t="shared" si="2"/>
         <v>1.3032520833388965</v>
       </c>
       <c r="M19">
@@ -1766,48 +9820,186 @@
       <c r="C28" t="s">
         <v>10</v>
       </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>10</v>
       </c>
+      <c r="C29">
+        <v>30</v>
+      </c>
+      <c r="H29">
+        <v>47.192999999999998</v>
+      </c>
+      <c r="I29">
+        <v>-0.69899999999999995</v>
+      </c>
+      <c r="J29">
+        <f>1/I29</f>
+        <v>-1.4306151645207441</v>
+      </c>
+      <c r="K29">
+        <f>C29/H29</f>
+        <v>0.63568749602695318</v>
+      </c>
+      <c r="L29">
+        <f>POWER(K29,J29)</f>
+        <v>1.9119766798160431</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>15</v>
       </c>
+      <c r="C30">
+        <v>37</v>
+      </c>
+      <c r="H30">
+        <v>47.192999999999998</v>
+      </c>
+      <c r="I30">
+        <v>-0.69899999999999995</v>
+      </c>
+      <c r="J30">
+        <f>1/I30</f>
+        <v>-1.4306151645207441</v>
+      </c>
+      <c r="K30">
+        <f>C30/H30</f>
+        <v>0.78401457843324229</v>
+      </c>
+      <c r="L30">
+        <f>POWER(K30,J30)</f>
+        <v>1.4163855593317094</v>
+      </c>
+      <c r="M30">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>20</v>
       </c>
+      <c r="C31">
+        <v>42</v>
+      </c>
+      <c r="H31">
+        <v>47.192999999999998</v>
+      </c>
+      <c r="I31">
+        <v>-0.69899999999999995</v>
+      </c>
+      <c r="J31">
+        <f>1/I31</f>
+        <v>-1.4306151645207441</v>
+      </c>
+      <c r="K31">
+        <f>C31/H31</f>
+        <v>0.88996249443773445</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:L33" si="3">POWER(K31,J31)</f>
+        <v>1.1814887947196031</v>
+      </c>
+      <c r="M31">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>25</v>
       </c>
+      <c r="C32">
+        <v>48.5</v>
+      </c>
+      <c r="H32">
+        <v>47.192999999999998</v>
+      </c>
+      <c r="I32">
+        <v>-0.69899999999999995</v>
+      </c>
+      <c r="J32">
+        <f>1/I32</f>
+        <v>-1.4306151645207441</v>
+      </c>
+      <c r="K32">
+        <f>C32/H32</f>
+        <v>1.0276947852435743</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="3"/>
+        <v>0.96167198167401913</v>
+      </c>
+      <c r="M32">
+        <v>25</v>
+      </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>30</v>
       </c>
+      <c r="C33">
+        <v>55.5</v>
+      </c>
+      <c r="H33">
+        <v>47.192999999999998</v>
+      </c>
+      <c r="I33">
+        <v>-0.69899999999999995</v>
+      </c>
+      <c r="J33">
+        <f>1/I33</f>
+        <v>-1.4306151645207441</v>
+      </c>
+      <c r="K33">
+        <f>C33/H33</f>
+        <v>1.1760218676498633</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="3"/>
+        <v>0.79298078653688664</v>
+      </c>
+      <c r="M33">
+        <v>30</v>
+      </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>50</v>
       </c>
